--- a/MakeMoney/Input/Thong_Ke/documents-export-2013-11-20/Cau_T(2).xlsx
+++ b/MakeMoney/Input/Thong_Ke/documents-export-2013-11-20/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="497" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="221" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="50">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>'090</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>T3</t>
   </si>
   <si>
     <t>T4</t>
@@ -132,13 +150,7 @@
     <t>?</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>'08</t>
-  </si>
-  <si>
-    <t>T1</t>
   </si>
   <si>
     <t>TET TET TET</t>
@@ -147,19 +159,7 @@
     <t>NO DATA NO DATA</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>T12 - 2012</t>
-  </si>
-  <si>
-    <t>TET</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>DATA</t>
   </si>
   <si>
     <t>T12-2012</t>
@@ -239,7 +239,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFB515"/>
+        <bgColor rgb="00FF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00993300"/>
       </patternFill>
@@ -272,8 +278,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF950E"/>
+        <bgColor rgb="00FF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF9900"/>
-        <bgColor rgb="00FFCC00"/>
+        <bgColor rgb="00FF950E"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,7 +323,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -331,13 +343,41 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -346,16 +386,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -376,6 +407,66 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFB515"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF950E"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,9 +482,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.8196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -548,42 +639,42 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
+      <selection activeCell="V27" activeCellId="0" pane="topLeft" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -683,7 +774,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -705,21 +796,21 @@
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="n">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="U4" s="7" t="n">
+      <c r="U4" s="11" t="n">
         <v>13</v>
       </c>
       <c r="V4" s="5" t="n">
@@ -746,11 +837,11 @@
       <c r="AE4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -801,10 +892,10 @@
       <c r="Y7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
       <c r="AD7" s="5" t="n">
         <v>1</v>
       </c>
@@ -908,7 +999,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -916,10 +1007,10 @@
       <c r="B11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="5" t="n">
         <v>1</v>
       </c>
@@ -951,35 +1042,35 @@
       <c r="U11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7" t="n">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AC11" s="7" t="n">
+      <c r="AC11" s="11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="5" t="n">
         <v>1</v>
       </c>
@@ -989,10 +1080,10 @@
       <c r="F14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="5" t="n">
         <v>1</v>
       </c>
@@ -1006,10 +1097,10 @@
       <c r="O14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="5" t="n">
         <v>1</v>
       </c>
@@ -1038,68 +1129,68 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="10"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="n">
+      <c r="E17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="M17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="12" t="n">
+      <c r="M17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AE17" s="5"/>
@@ -1107,12 +1198,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF19" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF19" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="10"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="n">
         <v>1</v>
@@ -1158,10 +1249,10 @@
       <c r="V20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
       <c r="AA20" s="5" t="n">
         <v>1</v>
       </c>
@@ -1177,7 +1268,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -1204,7 +1295,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="10"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="n">
         <v>1</v>
@@ -1255,11 +1346,11 @@
       <c r="AA23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7" t="n">
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1268,7 +1359,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>62</v>
@@ -1328,20 +1419,22 @@
         <v>66</v>
       </c>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="V25" s="3" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="n">
+      <c r="A26" s="20"/>
+      <c r="B26" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="11" t="n">
         <v>9</v>
       </c>
       <c r="F26" s="5" t="n">
@@ -1384,7 +1477,9 @@
       <c r="U26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="V26" s="5"/>
+      <c r="V26" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -1394,7 +1489,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="8"/>
+      <c r="AF26" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1414,43 +1509,43 @@
   </sheetPr>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U67" activeCellId="0" pane="topLeft" sqref="U67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="V63" activeCellId="0" pane="topLeft" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1549,8 +1644,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="18" t="s">
-        <v>35</v>
+      <c r="A2" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -1618,14 +1713,14 @@
       <c r="AB3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="18" t="s">
-        <v>16</v>
+      <c r="A5" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -1698,11 +1793,11 @@
         <v>1</v>
       </c>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
+      <c r="A8" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -1723,10 +1818,10 @@
       <c r="I9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5" t="n">
         <v>1</v>
       </c>
@@ -1780,8 +1875,8 @@
       <c r="AF9" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
+      <c r="A11" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -1795,10 +1890,10 @@
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
@@ -1810,13 +1905,13 @@
       <c r="M12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7" t="n">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="11" t="n">
         <v>5</v>
       </c>
       <c r="S12" s="5" t="n">
@@ -1833,22 +1928,22 @@
       <c r="X12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
       <c r="AC12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="18" t="s">
-        <v>21</v>
+      <c r="A14" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -1877,10 +1972,10 @@
       <c r="I15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="11" t="n">
         <v>7</v>
       </c>
       <c r="L15" s="5" t="n">
@@ -1934,8 +2029,8 @@
       <c r="AF15" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="s">
-        <v>22</v>
+      <c r="A17" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -1943,24 +2038,24 @@
       <c r="B18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="11" t="n">
         <v>7</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="5" t="n">
         <v>1</v>
       </c>
@@ -1978,25 +2073,25 @@
       <c r="U18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
       <c r="Z18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
       <c r="AE18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AF18" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="18" t="s">
-        <v>23</v>
+      <c r="A20" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -2030,17 +2125,17 @@
       <c r="P21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="n">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Y21" s="7" t="n">
+      <c r="Y21" s="11" t="n">
         <v>9</v>
       </c>
       <c r="Z21" s="5" t="n">
@@ -2057,11 +2152,11 @@
         <v>1</v>
       </c>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="8"/>
+      <c r="AF21" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
+      <c r="A23" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -2145,8 +2240,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="18" t="s">
-        <v>30</v>
+      <c r="A26" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -2164,21 +2259,21 @@
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7" t="n">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="Q27" s="11" t="n">
         <v>11</v>
       </c>
       <c r="R27" s="5" t="n">
@@ -2213,11 +2308,11 @@
       <c r="AE27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF27" s="8"/>
+      <c r="AF27" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="18" t="s">
-        <v>41</v>
+      <c r="A29" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -2275,10 +2370,10 @@
       <c r="X30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
       <c r="AC30" s="5" t="n">
         <v>1</v>
       </c>
@@ -2288,18 +2383,18 @@
       <c r="AE30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="9"/>
+      <c r="AF30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="18" t="s">
-        <v>37</v>
+      <c r="A32" s="25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="5" t="n">
         <v>1</v>
       </c>
@@ -2363,7 +2458,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="36">
@@ -2384,32 +2479,32 @@
       <c r="I36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8" t="s">
-        <v>42</v>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="S36" s="14"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="5" t="n">
         <v>0</v>
       </c>
@@ -2430,8 +2525,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="18" t="s">
-        <v>35</v>
+      <c r="A38" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -2453,26 +2548,26 @@
       <c r="J39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
       <c r="N39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O39" s="9"/>
+      <c r="O39" s="19"/>
       <c r="P39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" s="9"/>
+      <c r="Q39" s="19"/>
       <c r="R39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
       <c r="W39" s="5" t="n">
         <v>1</v>
       </c>
@@ -2500,7 +2595,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -2572,7 +2667,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
@@ -2590,25 +2685,25 @@
       <c r="F44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="n">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="11" t="n">
         <v>5</v>
       </c>
       <c r="L44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7" t="n">
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Q44" s="7" t="n">
+      <c r="Q44" s="11" t="n">
         <v>5</v>
       </c>
       <c r="R44" s="5" t="n">
@@ -2638,58 +2733,58 @@
       <c r="AB44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC44" s="7" t="s">
-        <v>18</v>
+      <c r="AC44" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="AD44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF44" s="7" t="s">
-        <v>18</v>
+      <c r="AE44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF44" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="5"/>
-      <c r="B47" s="7" t="s">
-        <v>18</v>
+      <c r="B47" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>18</v>
+      <c r="D47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>18</v>
+      <c r="I47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>1</v>
@@ -2738,11 +2833,11 @@
       <c r="AE47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF47" s="8"/>
+      <c r="AF47" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -2758,17 +2853,17 @@
       <c r="F50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>18</v>
+      <c r="G50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>1</v>
@@ -2801,19 +2896,19 @@
       <c r="W50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="X50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA50" s="7" t="n">
+      <c r="X50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA50" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AB50" s="7" t="n">
+      <c r="AB50" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AC50" s="5" t="n">
@@ -2825,27 +2920,27 @@
       <c r="AE50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF50" s="7" t="s">
-        <v>18</v>
+      <c r="AF50" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
-      <c r="A53" s="10"/>
-      <c r="B53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="7" t="n">
+      <c r="A53" s="20"/>
+      <c r="B53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="11" t="n">
         <v>5</v>
       </c>
       <c r="F53" s="5" t="n">
@@ -2874,17 +2969,17 @@
       <c r="Q53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U53" s="9" t="s">
-        <v>18</v>
+      <c r="R53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="V53" s="5" t="n">
         <v>1</v>
@@ -2918,12 +3013,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF55" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF55" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
-      <c r="A56" s="10"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="n">
         <v>1</v>
@@ -2971,30 +3066,30 @@
       <c r="X56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB56" s="7" t="n">
+      <c r="Y56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB56" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AC56" s="7" t="n">
+      <c r="AC56" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AD56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AE56" s="5"/>
-      <c r="AF56" s="8"/>
+      <c r="AF56" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>39</v>
@@ -3053,36 +3148,36 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
-      <c r="A59" s="10"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>18</v>
+      <c r="C59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>18</v>
+      <c r="H59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="L59" s="5" t="n">
         <v>1</v>
@@ -3126,16 +3221,16 @@
       <c r="AC59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>85</v>
@@ -3187,11 +3282,13 @@
       </c>
       <c r="S61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="V61" s="3" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="5" t="n">
         <v>1</v>
       </c>
@@ -3229,7 +3326,9 @@
       <c r="U62" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -3239,7 +3338,7 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
-      <c r="AF62" s="8"/>
+      <c r="AF62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3261,45 +3360,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U26" activeCellId="0" pane="topLeft" sqref="U26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="U4" activeCellId="0" pane="topLeft" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3397,749 +3496,952 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="N6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="A24" s="20"/>
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="20"/>
+      <c r="B27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="W29" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="X29" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="20"/>
+      <c r="B30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="7" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="A33" s="20"/>
+      <c r="B33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="AC4" s="7" t="n">
+      <c r="M33" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="AD4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF18" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="21">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="8"/>
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="R6:S6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -4157,43 +4459,43 @@
   </sheetPr>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="V28" activeCellId="0" pane="topLeft" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4293,46 +4595,46 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -4382,28 +4684,28 @@
       <c r="V6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="n">
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AC6" s="7" t="n">
+      <c r="AC6" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AD6" s="7" t="n">
+      <c r="AD6" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="AE6" s="7" t="n">
+      <c r="AE6" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -4459,13 +4761,13 @@
       <c r="Z9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7" t="n">
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AE9" s="7" t="n">
+      <c r="AE9" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AF9" s="5" t="n">
@@ -4474,7 +4776,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -4503,19 +4805,19 @@
       <c r="M12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="7" t="n">
+      <c r="N12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="11" t="n">
         <v>5</v>
       </c>
       <c r="S12" s="5" t="n">
@@ -4532,35 +4834,35 @@
         <v>1</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD12" s="7" t="n">
+      <c r="AA12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AE12" s="7" t="n">
+      <c r="AE12" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AF12" s="8"/>
+      <c r="AF12" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
@@ -4574,40 +4876,40 @@
       <c r="I15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="7" t="n">
+      <c r="J15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="T15" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="11" t="n">
         <v>12</v>
       </c>
       <c r="V15" s="5" t="n">
@@ -4640,11 +4942,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="10"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="n">
         <v>1</v>
@@ -4661,19 +4963,19 @@
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7" t="n">
+      <c r="J18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="11" t="n">
         <v>5</v>
       </c>
       <c r="O18" s="5" t="n">
@@ -4711,18 +5013,18 @@
       <c r="AC18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF20" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF20" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="10"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5" t="n">
         <v>1</v>
       </c>
@@ -4730,19 +5032,19 @@
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7" t="n">
+      <c r="E21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="5" t="n">
@@ -4771,19 +5073,19 @@
       <c r="U21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y21" s="7" t="n">
+      <c r="V21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Z21" s="7" t="n">
+      <c r="Z21" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AA21" s="5" t="n">
@@ -4795,11 +5097,11 @@
       </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="8"/>
+      <c r="AF21" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="n">
@@ -4818,10 +5120,10 @@
         <v>14</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>16</v>
@@ -4831,7 +5133,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="10"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="n">
         <v>1</v>
       </c>
@@ -4845,17 +5147,17 @@
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>18</v>
+      <c r="G24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>1</v>
@@ -4884,10 +5186,10 @@
       <c r="Y24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="5" t="n">
         <v>1</v>
       </c>
@@ -4899,7 +5201,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11</v>
@@ -4920,19 +5222,19 @@
         <v>24</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>11</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>33</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>17</v>
@@ -4961,10 +5263,12 @@
       <c r="U26" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="V26" s="3"/>
+      <c r="V26" s="3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="10"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5" t="n">
         <v>1</v>
@@ -4975,20 +5279,20 @@
       <c r="E27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K27" s="7" t="n">
+      <c r="K27" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L27" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="11" t="n">
         <v>8</v>
       </c>
       <c r="N27" s="5" t="n">
@@ -5004,10 +5308,10 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -5017,7 +5321,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="8"/>
+      <c r="AF27" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5037,43 +5341,43 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U72" activeCellId="0" pane="topLeft" sqref="U72"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B42" activeCellId="0" pane="topLeft" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5173,7 +5477,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
@@ -5204,23 +5508,23 @@
       <c r="Q3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7" t="n">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="W3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
       <c r="AA3" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -5230,7 +5534,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -5293,7 +5597,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -5308,10 +5612,10 @@
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="5" t="n">
         <v>1</v>
       </c>
@@ -5350,18 +5654,18 @@
       <c r="AC9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="n">
         <v>1</v>
       </c>
@@ -5394,14 +5698,14 @@
       <c r="R12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7" t="n">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="X12" s="7" t="n">
+      <c r="X12" s="11" t="n">
         <v>6</v>
       </c>
       <c r="Y12" s="5" t="n">
@@ -5411,15 +5715,15 @@
       <c r="AA12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="8"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -5427,14 +5731,14 @@
       <c r="B15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="n">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="11" t="n">
         <v>6</v>
       </c>
       <c r="I15" s="5" t="n">
@@ -5469,14 +5773,14 @@
       <c r="X15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7" t="n">
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AD15" s="7" t="n">
+      <c r="AD15" s="11" t="n">
         <v>6</v>
       </c>
       <c r="AE15" s="5" t="n">
@@ -5486,7 +5790,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -5506,10 +5810,10 @@
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="5" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +5853,11 @@
       </c>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="8"/>
+      <c r="AF18" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -5630,7 +5934,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -5705,7 +6009,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -5714,26 +6018,26 @@
       <c r="C27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="n">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H27" s="7" t="n">
+      <c r="H27" s="11" t="n">
         <v>5</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="n">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="11" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="5" t="n">
@@ -5775,15 +6079,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
@@ -5812,27 +6116,27 @@
       <c r="S30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7" t="n">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="AF30" s="7" t="n">
+      <c r="AF30" s="11" t="n">
         <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -5855,10 +6159,10 @@
       <c r="I33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="5" t="n">
         <v>1</v>
       </c>
@@ -5892,22 +6196,22 @@
       <c r="AD33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="8"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="n">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="11" t="n">
         <v>5</v>
       </c>
       <c r="F36" s="5" t="n">
@@ -5931,10 +6235,10 @@
       <c r="N36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="5" t="n">
         <v>1</v>
       </c>
@@ -5944,27 +6248,27 @@
       <c r="U36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
       <c r="Z36" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AA36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
       <c r="AF36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -5986,15 +6290,15 @@
       <c r="H39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7" t="n">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="11" t="n">
         <v>7</v>
       </c>
       <c r="P39" s="5" t="n">
@@ -6010,10 +6314,10 @@
       <c r="V39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
       <c r="AA39" s="5" t="n">
         <v>1</v>
       </c>
@@ -6031,15 +6335,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="42">
       <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="5" t="n">
         <v>1</v>
       </c>
@@ -6048,26 +6352,26 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8" t="s">
-        <v>42</v>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="S42" s="14"/>
       <c r="T42" s="5" t="n">
@@ -6092,12 +6396,12 @@
         <v>1</v>
       </c>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -6164,13 +6468,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>43</v>
@@ -6218,13 +6522,13 @@
       <c r="D48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="n">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J48" s="5" t="n">
@@ -6233,13 +6537,13 @@
       <c r="K48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7" t="n">
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="P48" s="7" t="n">
+      <c r="P48" s="11" t="n">
         <v>5</v>
       </c>
       <c r="Q48" s="5" t="n">
@@ -6271,7 +6575,7 @@
       <c r="AE48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF48" s="8"/>
+      <c r="AF48" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="B50" s="0" t="n">
@@ -6370,7 +6674,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
@@ -6385,10 +6689,10 @@
       <c r="G53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="5" t="n">
         <v>1</v>
       </c>
@@ -6424,22 +6728,22 @@
       <c r="X53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7" t="n">
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AF53" s="7" t="n">
+      <c r="AF53" s="11" t="n">
         <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
@@ -6468,10 +6772,10 @@
       <c r="M56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
       <c r="R56" s="5" t="n">
         <v>1</v>
       </c>
@@ -6495,18 +6799,18 @@
       <c r="Z56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
       <c r="AE56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF56" s="8"/>
+      <c r="AF56" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
@@ -6517,10 +6821,10 @@
       <c r="C59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="5" t="n">
         <v>1</v>
       </c>
@@ -6539,10 +6843,10 @@
       <c r="O59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
       <c r="T59" s="5" t="n">
         <v>1</v>
       </c>
@@ -6555,10 +6859,10 @@
       <c r="Y59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
       <c r="AD59" s="5" t="n">
         <v>1</v>
       </c>
@@ -6569,11 +6873,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="10"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="n">
         <v>1</v>
@@ -6633,17 +6937,17 @@
       <c r="AD62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AE62" s="12"/>
+      <c r="AE62" s="7"/>
       <c r="AF62" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF64" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF64" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="10"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="5" t="n">
         <v>1</v>
       </c>
@@ -6704,17 +7008,17 @@
         <v>1</v>
       </c>
       <c r="AE65" s="5"/>
-      <c r="AF65" s="8"/>
+      <c r="AF65" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
-      <c r="A68" s="10"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="n">
         <v>1</v>
@@ -6765,10 +7069,10 @@
       <c r="Y68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
       <c r="AD68" s="5" t="n">
         <v>1</v>
       </c>
@@ -6780,7 +7084,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="70">
       <c r="A70" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>13</v>
@@ -6807,7 +7111,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>33</v>
@@ -6842,28 +7146,30 @@
       <c r="U70" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="V70" s="3"/>
+      <c r="V70" s="3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
-      <c r="A71" s="10"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="n">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="I71" s="7" t="n">
+      <c r="I71" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J71" s="7" t="n">
+      <c r="J71" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K71" s="7" t="n">
+      <c r="K71" s="11" t="n">
         <v>9</v>
       </c>
       <c r="L71" s="5" t="n">
@@ -6883,10 +7189,12 @@
       <c r="T71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U71" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V71" s="5"/>
+      <c r="U71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
@@ -6896,7 +7204,7 @@
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
-      <c r="AF71" s="8"/>
+      <c r="AF71" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6923,42 +7231,42 @@
   <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
+      <selection activeCell="V68" activeCellId="0" pane="topLeft" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7058,7 +7366,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
@@ -7097,7 +7405,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="AA3" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -7107,7 +7415,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -7144,10 +7452,10 @@
       <c r="S5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
@@ -7164,7 +7472,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -7183,10 +7491,10 @@
       <c r="I8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="5" t="n">
         <v>1</v>
       </c>
@@ -7214,25 +7522,25 @@
       <c r="Z8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7" t="n">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AF8" s="7" t="n">
+      <c r="AF8" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5"/>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="n">
@@ -7256,31 +7564,31 @@
       <c r="K11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7" t="n">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="11" t="n">
         <v>6</v>
       </c>
       <c r="AC11" s="5" t="n">
@@ -7290,11 +7598,11 @@
       <c r="AE11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF11" s="8"/>
+      <c r="AF11" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -7361,7 +7669,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -7381,13 +7689,13 @@
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="n">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="11" t="n">
         <v>5</v>
       </c>
       <c r="N17" s="5" t="n">
@@ -7412,26 +7720,26 @@
       <c r="Y17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7" t="n">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AE17" s="7" t="n">
+      <c r="AE17" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AF17" s="8"/>
+      <c r="AF17" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="5"/>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C20" s="5" t="n">
@@ -7469,13 +7777,13 @@
       <c r="Q20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7" t="n">
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="V20" s="11" t="n">
         <v>5</v>
       </c>
       <c r="W20" s="5" t="n">
@@ -7499,7 +7807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -7507,13 +7815,13 @@
       <c r="B23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="n">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="11" t="n">
         <v>5</v>
       </c>
       <c r="H23" s="5" t="n">
@@ -7531,10 +7839,10 @@
       <c r="N23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="5" t="n">
         <v>1</v>
       </c>
@@ -7566,7 +7874,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -7620,10 +7928,10 @@
       <c r="X26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
       <c r="AC26" s="5" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7939,11 @@
         <v>1</v>
       </c>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="8"/>
+      <c r="AF26" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -7647,13 +7955,13 @@
       <c r="D29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="n">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J29" s="5" t="n">
@@ -7663,24 +7971,24 @@
       <c r="L29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="n">
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="S29" s="7" t="n">
+      <c r="S29" s="11" t="n">
         <v>7</v>
       </c>
       <c r="T29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
       <c r="Y29" s="5" t="n">
         <v>1</v>
       </c>
@@ -7700,19 +8008,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="n">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H32" s="5" t="n">
@@ -7763,7 +8071,7 @@
       <c r="AE32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF32" s="8"/>
+      <c r="AF32" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
@@ -7795,10 +8103,10 @@
       <c r="N35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="5" t="n">
         <v>1</v>
       </c>
@@ -7834,7 +8142,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -7882,10 +8190,10 @@
       <c r="X38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
       <c r="AC38" s="5" t="n">
         <v>1</v>
       </c>
@@ -7897,7 +8205,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
@@ -7906,34 +8214,34 @@
       <c r="C41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8" t="s">
-        <v>42</v>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="6"/>
@@ -7952,22 +8260,22 @@
       <c r="AA41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="n">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="5" t="n">
@@ -7991,10 +8299,10 @@
       <c r="P44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
       <c r="U44" s="5" t="n">
         <v>1</v>
       </c>
@@ -8020,7 +8328,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
@@ -8071,10 +8379,10 @@
       <c r="W47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
       <c r="AB47" s="5" t="n">
         <v>1</v>
       </c>
@@ -8083,11 +8391,11 @@
       <c r="AE47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF47" s="8"/>
+      <c r="AF47" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -8101,10 +8409,10 @@
       <c r="F50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="5" t="n">
         <v>1</v>
       </c>
@@ -8113,13 +8421,13 @@
       <c r="N50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7" t="n">
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="S50" s="7" t="n">
+      <c r="S50" s="11" t="n">
         <v>5</v>
       </c>
       <c r="T50" s="5" t="n">
@@ -8145,14 +8453,14 @@
       <c r="AB50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>12</v>
@@ -8211,10 +8519,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="5"/>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="11" t="n">
         <v>6</v>
       </c>
       <c r="D53" s="5" t="n">
@@ -8240,42 +8548,42 @@
       <c r="N53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7" t="n">
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="R53" s="7" t="n">
+      <c r="R53" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="S53" s="7" t="n">
+      <c r="S53" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="T53" s="7" t="n">
+      <c r="T53" s="11" t="n">
         <v>6</v>
       </c>
       <c r="U53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
       <c r="Z53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AA53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="8"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AB55" s="0" t="n">
         <v>62</v>
@@ -8332,18 +8640,18 @@
       <c r="V56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7" t="n">
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="Z56" s="7" t="n">
+      <c r="Z56" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AA56" s="7" t="n">
+      <c r="AA56" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AB56" s="7" t="n">
+      <c r="AB56" s="11" t="n">
         <v>6</v>
       </c>
       <c r="AC56" s="5" t="n">
@@ -8357,11 +8665,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
-      <c r="A59" s="10"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5" t="n">
         <v>1</v>
       </c>
@@ -8428,12 +8736,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF61" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF61" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="10"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="5" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +8802,11 @@
       <c r="AE62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF62" s="8"/>
+      <c r="AF62" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -8531,7 +8839,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="10"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="n">
         <v>1</v>
@@ -8569,28 +8877,28 @@
       <c r="T65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7" t="n">
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="X65" s="7" t="n">
+      <c r="X65" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Y65" s="7" t="n">
+      <c r="Y65" s="11" t="n">
         <v>5</v>
       </c>
       <c r="Z65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7" t="n">
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AF65" s="7" t="n">
+      <c r="AF65" s="11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8599,7 +8907,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>16</v>
@@ -8626,7 +8934,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>35</v>
@@ -8661,17 +8969,19 @@
       <c r="U67" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="V67" s="3"/>
+      <c r="V67" s="3" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
-      <c r="A68" s="10"/>
-      <c r="B68" s="7" t="n">
+      <c r="A68" s="20"/>
+      <c r="B68" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C68" s="7" t="n">
+      <c r="C68" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D68" s="7" t="n">
+      <c r="D68" s="11" t="n">
         <v>9</v>
       </c>
       <c r="E68" s="5" t="n">
@@ -8685,10 +8995,10 @@
       <c r="I68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="5" t="n">
         <v>1</v>
       </c>
@@ -8702,10 +9012,10 @@
         <v>2</v>
       </c>
       <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
@@ -8715,7 +9025,7 @@
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
-      <c r="AF68" s="8"/>
+      <c r="AF68" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8741,42 +9051,42 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U26" activeCellId="0" pane="topLeft" sqref="U26"/>
+      <selection activeCell="V26" activeCellId="0" pane="topLeft" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8876,7 +9186,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -8891,16 +9201,16 @@
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="n">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="11" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="5" t="n">
@@ -8924,13 +9234,13 @@
       <c r="V4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="n">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AB4" s="5" t="n">
@@ -8943,11 +9253,11 @@
         <v>1</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -8973,10 +9283,10 @@
       <c r="L7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="5" t="n">
         <v>1</v>
       </c>
@@ -9006,18 +9316,18 @@
       <c r="AC7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
@@ -9044,17 +9354,17 @@
       <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>18</v>
+      <c r="Q10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="U10" s="5" t="n">
         <v>1</v>
@@ -9077,11 +9387,11 @@
         <v>1</v>
       </c>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="8"/>
+      <c r="AF10" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -9104,20 +9414,20 @@
       <c r="K13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>18</v>
+      <c r="L13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -9130,22 +9440,22 @@
       <c r="U13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="7" t="n">
+      <c r="V13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AA13" s="7" t="n">
+      <c r="AA13" s="11" t="n">
         <v>6</v>
       </c>
       <c r="AB13" s="5" t="n">
@@ -9164,93 +9474,93 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="7" t="n">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="S16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="T16" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="U16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
+      <c r="U16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF18" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF18" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="10"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
@@ -9273,17 +9583,17 @@
       <c r="M19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>18</v>
+      <c r="N19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="R19" s="5" t="n">
         <v>1</v>
@@ -9315,11 +9625,11 @@
       <c r="AE19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>84</v>
@@ -9380,7 +9690,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="10"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5" t="n">
         <v>1</v>
       </c>
@@ -9401,20 +9711,20 @@
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>18</v>
+      <c r="J22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="O22" s="5" t="n">
         <v>1</v>
@@ -9428,19 +9738,19 @@
       <c r="T22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7" t="n">
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Y22" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Z22" s="7" t="n">
+      <c r="Z22" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AA22" s="7" t="n">
+      <c r="AA22" s="11" t="n">
         <v>7</v>
       </c>
       <c r="AB22" s="5" t="n">
@@ -9460,7 +9770,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -9522,10 +9832,12 @@
       <c r="U24" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="V24" s="3"/>
+      <c r="V24" s="3" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="n">
         <v>1</v>
@@ -9563,10 +9875,12 @@
         <v>1</v>
       </c>
       <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="5"/>
+      <c r="U25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -9576,7 +9890,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="8"/>
+      <c r="AF25" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9597,42 +9911,42 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U26" activeCellId="0" pane="topLeft" sqref="U26"/>
+      <selection activeCell="V26" activeCellId="0" pane="topLeft" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9732,7 +10046,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>77</v>
@@ -9786,7 +10100,7 @@
         <v>12</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>56</v>
@@ -9868,17 +10182,17 @@
       <c r="V4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>18</v>
+      <c r="W4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="AA4" s="5" t="n">
         <v>1</v>
@@ -9891,11 +10205,11 @@
       <c r="AE4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -10059,7 +10373,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -10068,17 +10382,17 @@
       <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>18</v>
+      <c r="D10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
@@ -10132,11 +10446,11 @@
         <v>1</v>
       </c>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="8"/>
+      <c r="AF10" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -10150,32 +10464,32 @@
       <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>18</v>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>18</v>
+      <c r="L13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>1</v>
@@ -10213,7 +10527,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>22</v>
@@ -10223,7 +10537,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="10"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="n">
@@ -10283,16 +10597,16 @@
       <c r="AD16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>18</v>
+      <c r="AE16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>26</v>
@@ -10327,20 +10641,20 @@
       <c r="N18" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="AF18" s="11"/>
+      <c r="AF18" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7" t="n">
+      <c r="A19" s="20"/>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="5" t="n">
@@ -10350,19 +10664,19 @@
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="n">
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="M19" s="11" t="n">
         <v>5</v>
       </c>
       <c r="N19" s="5" t="n">
@@ -10399,11 +10713,11 @@
       <c r="AE19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>21</v>
@@ -10500,29 +10814,29 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="10"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="n">
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="11" t="n">
         <v>6</v>
       </c>
       <c r="J22" s="5" t="n">
@@ -10539,32 +10853,32 @@
       <c r="O22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7" t="n">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="U22" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="V22" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="W22" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="X22" s="7" t="n">
+      <c r="X22" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Y22" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Z22" s="7" t="n">
+      <c r="Z22" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="AA22" s="7" t="n">
+      <c r="AA22" s="11" t="n">
         <v>12</v>
       </c>
       <c r="AB22" s="5" t="n">
@@ -10584,7 +10898,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>28</v>
@@ -10646,17 +10960,19 @@
       <c r="U24" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="V24" s="3"/>
+      <c r="V24" s="3" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5" t="n">
         <v>1</v>
       </c>
@@ -10691,10 +11007,12 @@
       <c r="T25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="5"/>
+      <c r="U25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -10704,7 +11022,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="8"/>
+      <c r="AF25" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10725,42 +11043,42 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U46" activeCellId="0" pane="topLeft" sqref="U46"/>
+      <selection activeCell="V46" activeCellId="0" pane="topLeft" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10860,7 +11178,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -10872,14 +11190,14 @@
       <c r="D5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="n">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="11" t="n">
         <v>6</v>
       </c>
       <c r="K5" s="5" t="n">
@@ -10901,29 +11219,29 @@
       <c r="S5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
       <c r="AC5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
       <c r="AF5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -10963,13 +11281,13 @@
       <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7" t="n">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="U8" s="11" t="n">
         <v>5</v>
       </c>
       <c r="V8" s="5" t="n">
@@ -10988,11 +11306,11 @@
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="8"/>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF8" s="8"/>
+      <c r="AF8" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
@@ -11036,19 +11354,19 @@
       <c r="T11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7" t="n">
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="AC11" s="7" t="n">
+      <c r="AC11" s="11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" s="5" t="n">
@@ -11059,7 +11377,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -11128,7 +11446,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
@@ -11137,32 +11455,32 @@
       <c r="C17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="J17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
       <c r="T17" s="5" t="n">
         <v>1</v>
       </c>
@@ -11184,7 +11502,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -11230,17 +11548,17 @@
       <c r="V20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7" t="n">
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AB20" s="7" t="n">
+      <c r="AB20" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AC20" s="7" t="n">
+      <c r="AC20" s="11" t="n">
         <v>7</v>
       </c>
       <c r="AD20" s="5" t="n">
@@ -11253,7 +11571,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -11303,10 +11621,10 @@
       <c r="X23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
       <c r="AC23" s="5" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +11632,11 @@
       <c r="AE23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF23" s="8"/>
+      <c r="AF23" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -11354,13 +11672,13 @@
       <c r="P26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7" t="n">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="U26" s="11" t="n">
         <v>5</v>
       </c>
       <c r="V26" s="5" t="n">
@@ -11486,7 +11804,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -11497,10 +11815,10 @@
       <c r="C30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="5" t="n">
         <v>1</v>
       </c>
@@ -11547,11 +11865,11 @@
       </c>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="8"/>
+      <c r="AF30" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -11575,13 +11893,13 @@
       <c r="J33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="n">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="11" t="n">
         <v>5</v>
       </c>
       <c r="P33" s="5" t="n">
@@ -11599,13 +11917,13 @@
       <c r="V33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7" t="n">
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AA33" s="7" t="n">
+      <c r="AA33" s="11" t="n">
         <v>5</v>
       </c>
       <c r="AB33" s="5" t="n">
@@ -11622,11 +11940,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="10"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="n">
         <v>1</v>
       </c>
@@ -11660,10 +11978,10 @@
       <c r="R36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
       <c r="W36" s="5" t="n">
         <v>1</v>
       </c>
@@ -11689,19 +12007,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF38" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF38" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="10"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="5" t="n">
         <v>1</v>
       </c>
@@ -11710,10 +12028,10 @@
       <c r="J39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="5" t="n">
         <v>1</v>
       </c>
@@ -11726,10 +12044,10 @@
       <c r="T39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
       <c r="Y39" s="5" t="n">
         <v>1</v>
       </c>
@@ -11743,11 +12061,11 @@
         <v>1</v>
       </c>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="8"/>
+      <c r="AF39" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -11762,7 +12080,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="10"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="5" t="n">
         <v>1</v>
       </c>
@@ -11832,7 +12150,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>29</v>
@@ -11894,10 +12212,12 @@
       <c r="U44" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="V44" s="3"/>
+      <c r="V44" s="3" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="10"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5" t="n">
         <v>2</v>
       </c>
@@ -11937,10 +12257,10 @@
         <v>1</v>
       </c>
       <c r="T45" s="5"/>
-      <c r="U45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -11950,7 +12270,7 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="8"/>
+      <c r="AF45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11973,43 +12293,43 @@
   </sheetPr>
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U67" activeCellId="0" pane="topLeft" sqref="U67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="V67" activeCellId="0" pane="topLeft" sqref="V67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.15686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12109,19 +12429,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="5"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
@@ -12159,14 +12479,14 @@
         <v>1</v>
       </c>
       <c r="V3" s="5"/>
-      <c r="W3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="W3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
       <c r="AA3" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -12175,8 +12495,8 @@
       <c r="AF3" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="18" t="s">
-        <v>40</v>
+      <c r="A4" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -12188,13 +12508,13 @@
       <c r="D5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="n">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="n">
@@ -12231,21 +12551,21 @@
       <c r="Y5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7" t="n">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AD5" s="7" t="n">
+      <c r="AD5" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="18" t="s">
-        <v>35</v>
+      <c r="A7" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -12296,17 +12616,17 @@
       <c r="AA8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7" t="n">
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11" t="n">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="18" t="s">
-        <v>16</v>
+      <c r="A10" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -12314,7 +12634,7 @@
       <c r="B11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="11" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="5" t="n">
@@ -12333,14 +12653,14 @@
       <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="n">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="11" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="5" t="n">
@@ -12375,11 +12695,11 @@
       <c r="AE11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF11" s="8"/>
+      <c r="AF11" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s">
-        <v>19</v>
+      <c r="A13" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -12455,8 +12775,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="18" t="s">
-        <v>20</v>
+      <c r="A16" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -12464,17 +12784,17 @@
       <c r="B17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="5" t="n">
         <v>1</v>
       </c>
@@ -12493,13 +12813,13 @@
       <c r="S17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7" t="n">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="X17" s="11" t="n">
         <v>5</v>
       </c>
       <c r="Y17" s="5" t="n">
@@ -12517,10 +12837,10 @@
       <c r="AE17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF17" s="8"/>
+      <c r="AF17" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12553,14 +12873,14 @@
       <c r="P20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7" t="n">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="V20" s="11" t="n">
         <v>6</v>
       </c>
       <c r="W20" s="5" t="n">
@@ -12570,10 +12890,10 @@
       <c r="Y20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
       <c r="AD20" s="5" t="n">
         <v>1</v>
       </c>
@@ -12586,7 +12906,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -12605,10 +12925,10 @@
       <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="5" t="n">
         <v>1</v>
       </c>
@@ -12653,7 +12973,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -12690,10 +13010,10 @@
       <c r="O25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="5" t="n">
         <v>1</v>
       </c>
@@ -12716,11 +13036,11 @@
         <v>1</v>
       </c>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="8"/>
+      <c r="AF25" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -12734,13 +13054,13 @@
       <c r="D28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="n">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J28" s="5" t="n">
@@ -12758,13 +13078,13 @@
       <c r="P28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7" t="n">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="U28" s="11" t="n">
         <v>5</v>
       </c>
       <c r="V28" s="5" t="n">
@@ -12791,25 +13111,25 @@
       <c r="AE28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF28" s="9"/>
+      <c r="AF28" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="5"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
@@ -12838,10 +13158,10 @@
       <c r="U31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
       <c r="Z31" s="5" t="n">
         <v>1</v>
       </c>
@@ -12869,20 +13189,20 @@
       <c r="D34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="5" t="n">
         <v>1</v>
       </c>
@@ -12924,7 +13244,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
@@ -12984,21 +13304,21 @@
       <c r="AB37" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7" t="n">
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="40">
       <c r="A40" s="5"/>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C40" s="5" t="n">
@@ -13016,22 +13336,22 @@
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
+      <c r="J40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
       <c r="T40" s="5" t="n">
         <v>1</v>
       </c>
@@ -13049,23 +13369,23 @@
       <c r="Z40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="n">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="11" t="n">
         <v>7</v>
       </c>
       <c r="F43" s="5" t="n">
@@ -13078,19 +13398,19 @@
       <c r="I43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="7" t="n">
+      <c r="J43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="N43" s="7" t="n">
+      <c r="N43" s="11" t="n">
         <v>5</v>
       </c>
       <c r="O43" s="5" t="n">
@@ -13132,7 +13452,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -13159,10 +13479,10 @@
       <c r="K45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="5" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +13513,11 @@
       </c>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="8"/>
+      <c r="AF45" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -13249,10 +13569,10 @@
       <c r="V48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
       <c r="AA48" s="5" t="n">
         <v>1</v>
       </c>
@@ -13272,7 +13592,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
@@ -13335,11 +13655,11 @@
       <c r="AE51" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF51" s="8"/>
+      <c r="AF51" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="53">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
@@ -13356,11 +13676,11 @@
       <c r="G54" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7" t="n">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11" t="n">
         <v>5</v>
       </c>
       <c r="M54" s="5" t="n">
@@ -13410,11 +13730,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="56">
       <c r="A56" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
-      <c r="A57" s="10"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="n">
         <v>1</v>
@@ -13444,10 +13764,10 @@
       <c r="R57" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
       <c r="W57" s="5" t="n">
         <v>1</v>
       </c>
@@ -13475,12 +13795,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="59">
       <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF59" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="AF59" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
-      <c r="A60" s="10"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="5" t="n">
         <v>1</v>
       </c>
@@ -13489,17 +13809,17 @@
       <c r="E60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
       <c r="J60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="5" t="n">
         <v>1</v>
       </c>
@@ -13537,11 +13857,11 @@
         <v>1</v>
       </c>
       <c r="AE60" s="5"/>
-      <c r="AF60" s="8"/>
+      <c r="AF60" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="62">
       <c r="A62" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>34</v>
@@ -13625,30 +13945,30 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
-      <c r="A63" s="10"/>
-      <c r="B63" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="12" t="n">
+      <c r="A63" s="20"/>
+      <c r="B63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="6"/>
@@ -13693,7 +14013,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="65">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>40</v>
@@ -13755,10 +14075,12 @@
       <c r="U65" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="V65" s="3"/>
+      <c r="V65" s="3" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
-      <c r="A66" s="10"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="5" t="n">
         <v>1</v>
       </c>
@@ -13798,10 +14120,12 @@
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V66" s="5"/>
+      <c r="U66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -13811,7 +14135,7 @@
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
-      <c r="AF66" s="8"/>
+      <c r="AF66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
